--- a/kadai3/day3/kadai3_3.xlsx
+++ b/kadai3/day3/kadai3_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tea/development/tus_school/sophomore/zikken2/kadai3/day3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F209C5F0-8A85-2743-B868-1DBB55FB2A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E3434-51D1-3D4F-9ACA-64FA7E4DD5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="2240" windowWidth="28300" windowHeight="17440" xr2:uid="{96280362-9573-A541-A220-2FCF927D52AE}"/>
+    <workbookView xWindow="3740" yWindow="2240" windowWidth="31480" windowHeight="19920" xr2:uid="{96280362-9573-A541-A220-2FCF927D52AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,10 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -279,20 +282,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$4:$C$8</c:f>
@@ -344,7 +333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3F87-C64C-B9CA-B265E1B445E0}"/>
+              <c16:uniqueId val="{00000005-3F87-C64C-B9CA-B265E1B445E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -604,10 +593,604 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11794456518177947"/>
+          <c:y val="2.6838454759942006E-2"/>
+          <c:w val="0.61199999999999999"/>
+          <c:h val="0.89778902637170355"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ブロック誤り率(実験値)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1400000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.684E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.375E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6290000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6809999999999995E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C868-4E4B-82EA-FDFA187955C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>復号前(理論値)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C868-4E4B-82EA-FDFA187955C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>復号後(理論値)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1631536304634629E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6506539634557685E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3981778849500044E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7337412793650733E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6328104315238074E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C868-4E4B-82EA-FDFA187955C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1941316560"/>
+        <c:axId val="1941338704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1941316560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+                  <a:t>誤り確率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941338704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1941338704"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+                  <a:t>ブロック誤り率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941316560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -721,7 +1304,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1248,7 +2387,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>774700</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -1270,6 +2409,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F0F055-78D1-BA41-AE71-CE8903EFDD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1577,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45BA8E0-E48A-2A4A-B3C3-D5DCD7029F28}">
   <dimension ref="C3:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
